--- a/output/XP_30754229000182.xlsx
+++ b/output/XP_30754229000182.xlsx
@@ -713,10 +713,10 @@
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.22601954</v>
+        <v>0.2306593800000001</v>
       </c>
       <c r="C30">
-        <v>0.05223054429482255</v>
+        <v>0.05621268422763404</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_30754229000182.xlsx
+++ b/output/XP_30754229000182.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP MACRO PLUS DOMINUS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43312</v>
       </c>
@@ -411,312 +405,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43343</v>
       </c>
       <c r="B3">
         <v>0.01432523000000008</v>
       </c>
-      <c r="C3">
-        <v>0.01432523000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43373</v>
       </c>
       <c r="B4">
-        <v>0.01710645999999993</v>
-      </c>
-      <c r="C4">
         <v>0.002741950922388048</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43404</v>
       </c>
       <c r="B5">
-        <v>0.03470185000000003</v>
-      </c>
-      <c r="C5">
         <v>0.01729945752188033</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43434</v>
       </c>
       <c r="B6">
-        <v>0.008031499999999969</v>
-      </c>
-      <c r="C6">
         <v>-0.02577587930281566</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43465</v>
       </c>
       <c r="B7">
-        <v>0.00915013000000009</v>
-      </c>
-      <c r="C7">
         <v>0.001109717305461277</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43496</v>
       </c>
       <c r="B8">
-        <v>0.07686926000000005</v>
-      </c>
-      <c r="C8">
         <v>0.06710510952418947</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43524</v>
       </c>
       <c r="B9">
-        <v>0.06327748</v>
-      </c>
-      <c r="C9">
         <v>-0.01262156930730851</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43555</v>
       </c>
       <c r="B10">
-        <v>0.06240839000000009</v>
-      </c>
-      <c r="C10">
         <v>-0.0008173689524580974</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43585</v>
       </c>
       <c r="B11">
-        <v>0.07320650999999989</v>
-      </c>
-      <c r="C11">
         <v>0.01016381280648559</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43616</v>
       </c>
       <c r="B12">
-        <v>0.0515902399999999</v>
-      </c>
-      <c r="C12">
         <v>-0.02014176190563732</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43646</v>
       </c>
       <c r="B13">
-        <v>0.0867875600000001</v>
-      </c>
-      <c r="C13">
         <v>0.03347056549326677</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43677</v>
       </c>
       <c r="B14">
-        <v>0.1044970999999999</v>
-      </c>
-      <c r="C14">
         <v>0.016295309821176</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43708</v>
       </c>
       <c r="B15">
-        <v>0.10763674</v>
-      </c>
-      <c r="C15">
         <v>0.002842596870557657</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43738</v>
       </c>
       <c r="B16">
-        <v>0.13897351</v>
-      </c>
-      <c r="C16">
         <v>0.02829155883724122</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43769</v>
       </c>
       <c r="B17">
-        <v>0.18599721</v>
-      </c>
-      <c r="C17">
         <v>0.04128603482621829</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43799</v>
       </c>
       <c r="B18">
-        <v>0.1482707599999999</v>
-      </c>
-      <c r="C18">
         <v>-0.03180989776527388</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43830</v>
       </c>
       <c r="B19">
-        <v>0.19298427</v>
-      </c>
-      <c r="C19">
         <v>0.03893986641269165</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43861</v>
       </c>
       <c r="B20">
-        <v>0.18934202</v>
-      </c>
-      <c r="C20">
         <v>-0.003053057858005137</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43890</v>
       </c>
       <c r="B21">
-        <v>0.14800923</v>
-      </c>
-      <c r="C21">
         <v>-0.03475265256330551</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43921</v>
       </c>
       <c r="B22">
-        <v>-0.06320051999999998</v>
-      </c>
-      <c r="C22">
         <v>-0.1839791392617984</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43951</v>
       </c>
       <c r="B23">
-        <v>-0.03596182999999997</v>
-      </c>
-      <c r="C23">
         <v>0.02907632912008018</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43982</v>
       </c>
       <c r="B24">
-        <v>0.06610062000000005</v>
-      </c>
-      <c r="C24">
         <v>0.1058697188307389</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44012</v>
       </c>
       <c r="B25">
-        <v>0.12718316</v>
-      </c>
-      <c r="C25">
         <v>0.0572952860678384</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44043</v>
       </c>
       <c r="B26">
-        <v>0.20428617</v>
-      </c>
-      <c r="C26">
         <v>0.0684032664221137</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44074</v>
       </c>
       <c r="B27">
-        <v>0.2046876900000001</v>
-      </c>
-      <c r="C27">
         <v>0.0003334091265034811</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
       <c r="B28">
-        <v>0.16815366</v>
-      </c>
-      <c r="C28">
         <v>-0.03032655708468313</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44135</v>
       </c>
       <c r="B29">
-        <v>0.1651624700000001</v>
-      </c>
-      <c r="C29">
         <v>-0.002560613472717188</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.2306593800000001</v>
-      </c>
-      <c r="C30">
-        <v>0.05621268422763404</v>
+        <v>0.02943174954819816</v>
       </c>
     </row>
   </sheetData>
